--- a/biology/Botanique/Barleria_cristata/Barleria_cristata.xlsx
+++ b/biology/Botanique/Barleria_cristata/Barleria_cristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barleria cristata est une plante à fleurs du genre Barleria de la famille des Acanthaceae.
 Elle est originaire d’une vaste région s’étendant de la Chine du Sud à l’Inde et à la Birmanie.
 Cultivée comme plante ornementale dans les villages et les jardins, elle s’est naturalisée à Hawaii, où elle pousse en zone sèche.
-À Fiji, connue sous le nom de tombithi et sur l’île Christmas (dans l’océan Indien, au large de Java), l’arbrisseau pousse aussi comme plante rudérale le long des routes et dans les zones perturbées depuis le niveau de la mer jusqu’à 100 mètres[1].
+À Fiji, connue sous le nom de tombithi et sur l’île Christmas (dans l’océan Indien, au large de Java), l’arbrisseau pousse aussi comme plante rudérale le long des routes et dans les zones perturbées depuis le niveau de la mer jusqu’à 100 mètres.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Barleria cristata pousse en arbrisseau de 60 cm à 1 mètre.
 Les feuilles sont foncées sur la face supérieure et vert pale sur la face inférieure. Elles sont elliptiques et étroitement ovales.
@@ -548,7 +562,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est utilisée en Thaïlande comme remède traditionnel.
 Elle aurait des propriétés en tant que tonique, diurétique et purifiant sanguin.
@@ -581,7 +597,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -612,9 +630,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2], 13 juillet 2012 :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List", 13 juillet 2012 :
 Barleria alba Lodd.
 Barleria caerulea Nees
 Barleria chegosa Wall. [Invalid]
